--- a/ISRaD_data_files/Beem-Miller_2021.xlsx
+++ b/ISRaD_data_files/Beem-Miller_2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f0076db\Documents\GitHub\ISRaD\ISRaD_data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DA9C05F-17EF-4BC8-BA9F-0F87F95E0C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8435ACAB-A98B-40EC-9B09-61148F718B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
     <definedName name="ThA">'controlled vocabulary'!$AU$39:$AU$40</definedName>
     <definedName name="ThP">'controlled vocabulary'!$AV$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="1049">
   <si>
     <t>curator_name</t>
   </si>
@@ -4262,7 +4262,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4460,6 +4460,10 @@
       <color rgb="FF767676"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="48">
@@ -6461,7 +6465,7 @@
   <dimension ref="A1:Q985"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15" customHeight="1"/>
@@ -19983,7 +19987,7 @@
       <c r="DI6" s="5"/>
       <c r="DJ6" s="5"/>
     </row>
-    <row r="7" spans="1:114" ht="26.5">
+    <row r="7" spans="1:114" ht="14.5">
       <c r="A7" s="3" t="s">
         <v>989</v>
       </c>
@@ -20128,7 +20132,7 @@
       <c r="DI7" s="5"/>
       <c r="DJ7" s="5"/>
     </row>
-    <row r="8" spans="1:114" ht="26.5">
+    <row r="8" spans="1:114" ht="14.5">
       <c r="A8" s="3" t="s">
         <v>989</v>
       </c>
@@ -29168,7 +29172,7 @@
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4:C7"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -29489,6 +29493,9 @@
       <c r="M4" s="3" t="s">
         <v>282</v>
       </c>
+      <c r="N4" s="3" t="s">
+        <v>605</v>
+      </c>
       <c r="P4" s="3">
         <v>20</v>
       </c>
@@ -29554,6 +29561,9 @@
       <c r="M5" s="3" t="s">
         <v>282</v>
       </c>
+      <c r="N5" s="3" t="s">
+        <v>605</v>
+      </c>
       <c r="P5" s="3">
         <v>20</v>
       </c>
@@ -29619,6 +29629,9 @@
       <c r="M6" s="3" t="s">
         <v>282</v>
       </c>
+      <c r="N6" s="3" t="s">
+        <v>605</v>
+      </c>
       <c r="P6" s="3">
         <v>20</v>
       </c>
@@ -29684,6 +29697,9 @@
       <c r="M7" s="3" t="s">
         <v>282</v>
       </c>
+      <c r="N7" s="3" t="s">
+        <v>605</v>
+      </c>
       <c r="P7" s="3">
         <v>20</v>
       </c>
@@ -29749,6 +29765,9 @@
       <c r="M8" s="3" t="s">
         <v>282</v>
       </c>
+      <c r="N8" s="3" t="s">
+        <v>605</v>
+      </c>
       <c r="P8" s="3">
         <v>20</v>
       </c>
@@ -29814,6 +29833,9 @@
       <c r="M9" s="3" t="s">
         <v>282</v>
       </c>
+      <c r="N9" s="3" t="s">
+        <v>605</v>
+      </c>
       <c r="P9" s="3">
         <v>20</v>
       </c>
@@ -29879,6 +29901,9 @@
       <c r="M10" s="3" t="s">
         <v>282</v>
       </c>
+      <c r="N10" s="3" t="s">
+        <v>605</v>
+      </c>
       <c r="P10" s="3">
         <v>20</v>
       </c>
@@ -29936,6 +29961,9 @@
       <c r="M11" s="3" t="s">
         <v>282</v>
       </c>
+      <c r="N11" s="3" t="s">
+        <v>605</v>
+      </c>
       <c r="P11" s="3">
         <v>20</v>
       </c>
@@ -29993,6 +30021,9 @@
       <c r="M12" s="3" t="s">
         <v>282</v>
       </c>
+      <c r="N12" s="3" t="s">
+        <v>605</v>
+      </c>
       <c r="P12" s="3">
         <v>20</v>
       </c>
@@ -30050,6 +30081,9 @@
       <c r="M13" s="3" t="s">
         <v>282</v>
       </c>
+      <c r="N13" s="3" t="s">
+        <v>605</v>
+      </c>
       <c r="P13" s="3">
         <v>20</v>
       </c>
@@ -30107,6 +30141,9 @@
       <c r="M14" s="3" t="s">
         <v>283</v>
       </c>
+      <c r="N14" s="3" t="s">
+        <v>605</v>
+      </c>
       <c r="P14" s="3">
         <v>20</v>
       </c>
@@ -30164,6 +30201,9 @@
       <c r="M15" s="3" t="s">
         <v>283</v>
       </c>
+      <c r="N15" s="3" t="s">
+        <v>605</v>
+      </c>
       <c r="P15" s="3">
         <v>20</v>
       </c>
@@ -30221,6 +30261,9 @@
       <c r="M16" s="3" t="s">
         <v>282</v>
       </c>
+      <c r="N16" s="3" t="s">
+        <v>605</v>
+      </c>
       <c r="P16" s="3">
         <v>20</v>
       </c>
@@ -30278,6 +30321,9 @@
       <c r="M17" s="3" t="s">
         <v>282</v>
       </c>
+      <c r="N17" s="3" t="s">
+        <v>605</v>
+      </c>
       <c r="P17" s="3">
         <v>20</v>
       </c>
@@ -30335,6 +30381,9 @@
       <c r="M18" s="3" t="s">
         <v>282</v>
       </c>
+      <c r="N18" s="3" t="s">
+        <v>605</v>
+      </c>
       <c r="P18" s="3">
         <v>20</v>
       </c>
@@ -30392,6 +30441,9 @@
       <c r="M19" s="3" t="s">
         <v>282</v>
       </c>
+      <c r="N19" s="3" t="s">
+        <v>605</v>
+      </c>
       <c r="P19" s="3">
         <v>20</v>
       </c>
@@ -30449,6 +30501,9 @@
       <c r="M20" s="3" t="s">
         <v>282</v>
       </c>
+      <c r="N20" s="3" t="s">
+        <v>605</v>
+      </c>
       <c r="P20" s="3">
         <v>20</v>
       </c>
@@ -30506,6 +30561,9 @@
       <c r="M21" s="3" t="s">
         <v>282</v>
       </c>
+      <c r="N21" s="3" t="s">
+        <v>605</v>
+      </c>
       <c r="P21" s="3">
         <v>20</v>
       </c>
@@ -31114,6 +31172,7 @@
       <c r="B200" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
